--- a/2022级/naive_all_d1_0.2_d2_0.4_d3_0.6_processed_2022级核工程与核技术班.xlsx
+++ b/2022级/naive_all_d1_0.2_d2_0.4_d3_0.6_processed_2022级核工程与核技术班.xlsx
@@ -535,17 +535,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.8</v>
+        <v>14.5</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="F2" t="n">
-        <v>20</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
         <v>9</v>
       </c>
@@ -560,14 +558,10 @@
         <v>6.5</v>
       </c>
       <c r="L2" t="n">
-        <v>16</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
         <v>2.8</v>
       </c>
@@ -575,7 +569,7 @@
         <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="R2" t="n">
         <v>92</v>
@@ -591,17 +585,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>28</v>
       </c>
       <c r="E3" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
         <v>2.5</v>
       </c>
@@ -618,12 +610,8 @@
       <c r="L3" t="n">
         <v>16</v>
       </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
         <v>2</v>
       </c>
@@ -631,7 +619,7 @@
         <v>16</v>
       </c>
       <c r="Q3" t="n">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="R3" t="n">
         <v>90</v>
@@ -647,17 +635,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15.3</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>6</v>
       </c>
@@ -674,12 +660,8 @@
       <c r="L4" t="n">
         <v>16</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
         <v>0</v>
       </c>
@@ -687,7 +669,7 @@
         <v>16</v>
       </c>
       <c r="Q4" t="n">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="R4" t="n">
         <v>90</v>
@@ -703,17 +685,15 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>18</v>
-      </c>
+        <v>10.5</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
         <v>10.5</v>
       </c>
@@ -730,12 +710,8 @@
       <c r="L5" t="n">
         <v>20</v>
       </c>
-      <c r="M5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
         <v>6.7</v>
       </c>
@@ -743,10 +719,10 @@
         <v>18</v>
       </c>
       <c r="Q5" t="n">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="R5" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -759,17 +735,15 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>8</v>
       </c>
@@ -786,12 +760,8 @@
       <c r="L6" t="n">
         <v>18</v>
       </c>
-      <c r="M6" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
         <v>11.3</v>
       </c>
@@ -799,10 +769,10 @@
         <v>20</v>
       </c>
       <c r="Q6" t="n">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="R6" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -815,17 +785,15 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16</v>
-      </c>
+        <v>7.5</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
         <v>7.5</v>
       </c>
@@ -842,12 +810,8 @@
       <c r="L7" t="n">
         <v>16</v>
       </c>
-      <c r="M7" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
         <v>5.2</v>
       </c>
@@ -855,10 +819,10 @@
         <v>18</v>
       </c>
       <c r="Q7" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="R7" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -871,17 +835,15 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11.2</v>
+        <v>23.5</v>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>16</v>
-      </c>
+        <v>8.5</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
         <v>8.5</v>
       </c>
@@ -898,12 +860,8 @@
       <c r="L8" t="n">
         <v>18</v>
       </c>
-      <c r="M8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
         <v>2.2</v>
       </c>
@@ -911,10 +869,10 @@
         <v>16</v>
       </c>
       <c r="Q8" t="n">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="R8" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -927,17 +885,15 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.2</v>
+        <v>19.5</v>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>18</v>
-      </c>
+        <v>15.5</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
         <v>15.5</v>
       </c>
@@ -956,12 +912,8 @@
       <c r="L9" t="n">
         <v>18</v>
       </c>
-      <c r="M9" t="n">
-        <v>6</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
         <v>6</v>
       </c>
@@ -969,10 +921,10 @@
         <v>18</v>
       </c>
       <c r="Q9" t="n">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="R9" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -985,17 +937,15 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11.4</v>
+        <v>8.5</v>
       </c>
       <c r="D10" t="n">
         <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>16</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
         <v>7</v>
       </c>
@@ -1012,12 +962,8 @@
       <c r="L10" t="n">
         <v>16</v>
       </c>
-      <c r="M10" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
         <v>0.4</v>
       </c>
@@ -1025,7 +971,7 @@
         <v>16</v>
       </c>
       <c r="Q10" t="n">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="R10" t="n">
         <v>90</v>
@@ -1041,16 +987,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16.7</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>16.7</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>7.4</v>
       </c>
       <c r="G11" t="n">
         <v>16.4</v>
@@ -1068,12 +1014,8 @@
       <c r="L11" t="n">
         <v>18</v>
       </c>
-      <c r="M11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
         <v>4.7</v>
       </c>
@@ -1081,10 +1023,10 @@
         <v>18</v>
       </c>
       <c r="Q11" t="n">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="R11" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -1097,17 +1039,15 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10.4</v>
+        <v>18.5</v>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
         <v>9</v>
       </c>
@@ -1126,12 +1066,8 @@
       <c r="L12" t="n">
         <v>20</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
         <v>1.1</v>
       </c>
@@ -1139,10 +1075,10 @@
         <v>16</v>
       </c>
       <c r="Q12" t="n">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="R12" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -1155,17 +1091,15 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14.6</v>
+        <v>26.5</v>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F13" t="n">
-        <v>18</v>
-      </c>
+        <v>9.5</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
         <v>9.5</v>
       </c>
@@ -1182,12 +1116,8 @@
       <c r="L13" t="n">
         <v>18</v>
       </c>
-      <c r="M13" t="n">
-        <v>12</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
         <v>12</v>
       </c>
@@ -1195,10 +1125,10 @@
         <v>20</v>
       </c>
       <c r="Q13" t="n">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="R13" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -1211,17 +1141,15 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18.2</v>
+        <v>5.5</v>
       </c>
       <c r="D14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>20</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
         <v>7</v>
       </c>
@@ -1236,14 +1164,10 @@
         <v>6.5</v>
       </c>
       <c r="L14" t="n">
-        <v>16</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
         <v>1.4</v>
       </c>
@@ -1251,7 +1175,7 @@
         <v>16</v>
       </c>
       <c r="Q14" t="n">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="R14" t="n">
         <v>92</v>
@@ -1267,17 +1191,15 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="D15" t="n">
         <v>28</v>
       </c>
       <c r="E15" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
         <v>4</v>
       </c>
@@ -1294,12 +1216,8 @@
       <c r="L15" t="n">
         <v>16</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
         <v>0</v>
       </c>
@@ -1307,7 +1225,7 @@
         <v>16</v>
       </c>
       <c r="Q15" t="n">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="R15" t="n">
         <v>90</v>
@@ -1323,17 +1241,15 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.5</v>
+        <v>13.5</v>
       </c>
       <c r="D16" t="n">
         <v>28</v>
       </c>
       <c r="E16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F16" t="n">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
         <v>10</v>
       </c>
@@ -1350,12 +1266,8 @@
       <c r="L16" t="n">
         <v>18</v>
       </c>
-      <c r="M16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
         <v>2.4</v>
       </c>
@@ -1363,7 +1275,7 @@
         <v>16</v>
       </c>
       <c r="Q16" t="n">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="R16" t="n">
         <v>92</v>
@@ -1379,17 +1291,15 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.4</v>
+        <v>24.5</v>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
         <v>10</v>
       </c>
@@ -1406,12 +1316,8 @@
       <c r="L17" t="n">
         <v>18</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
         <v>1.3</v>
       </c>
@@ -1419,10 +1325,10 @@
         <v>16</v>
       </c>
       <c r="Q17" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R17" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
@@ -1435,17 +1341,15 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.4</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>14</v>
-      </c>
+        <v>7.5</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
         <v>7.5</v>
       </c>
@@ -1462,12 +1366,8 @@
       <c r="L18" t="n">
         <v>18</v>
       </c>
-      <c r="M18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
         <v>7.5</v>
       </c>
@@ -1475,10 +1375,10 @@
         <v>18</v>
       </c>
       <c r="Q18" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="R18" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -1491,17 +1391,15 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.6</v>
+        <v>22.5</v>
       </c>
       <c r="D19" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
         <v>9</v>
       </c>
@@ -1518,12 +1416,8 @@
       <c r="L19" t="n">
         <v>18</v>
       </c>
-      <c r="M19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
         <v>2.1</v>
       </c>
@@ -1531,10 +1425,10 @@
         <v>16</v>
       </c>
       <c r="Q19" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="R19" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
@@ -1572,12 +1466,8 @@
       <c r="L20" t="n">
         <v>16</v>
       </c>
-      <c r="M20" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
         <v>0.3</v>
       </c>
@@ -1626,12 +1516,8 @@
       <c r="L21" t="n">
         <v>18</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
         <v>0</v>
       </c>
@@ -1680,12 +1566,8 @@
       <c r="L22" t="n">
         <v>18</v>
       </c>
-      <c r="M22" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
         <v>18.4</v>
       </c>
@@ -1734,12 +1616,8 @@
       <c r="L23" t="n">
         <v>20</v>
       </c>
-      <c r="M23" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
         <v>21.9</v>
       </c>
@@ -1766,7 +1644,7 @@
         <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E24" t="n">
         <v>8.5</v>
@@ -1788,12 +1666,8 @@
       <c r="L24" t="n">
         <v>18</v>
       </c>
-      <c r="M24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
         <v>1.8</v>
       </c>
@@ -1804,7 +1678,7 @@
         <v>80</v>
       </c>
       <c r="R24" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -1842,12 +1716,8 @@
       <c r="L25" t="n">
         <v>18</v>
       </c>
-      <c r="M25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
         <v>7.5</v>
       </c>
@@ -1900,12 +1770,8 @@
       <c r="L26" t="n">
         <v>20</v>
       </c>
-      <c r="M26" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
         <v>7.2</v>
       </c>
@@ -1956,12 +1822,8 @@
       <c r="L27" t="n">
         <v>18</v>
       </c>
-      <c r="M27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
         <v>9.5</v>
       </c>
